--- a/MARK/storage/uploads/文字回答.xlsx
+++ b/MARK/storage/uploads/文字回答.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIT\MARK\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16211\Desktop\MARK_mobile\MARK\storage\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C10C5E-A3C3-481A-9E67-D411ED23BF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FC0786-6500-4D64-9968-1BC70CF136B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>什么是渗透压？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,14 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>什么是受控函？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么是释放度检测？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参考</t>
   </si>
   <si>
@@ -74,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你懂科学。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字数(模型答案)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,15 +74,434 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你懂医学。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你懂物理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你懂化学。</t>
+    <t>你很懂科学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你很懂医学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>渗透压是指溶液中溶质浓度造成的压力，这种压力会促使水分子通过半透膜从低浓度溶液向高浓度溶液移动，以达到浓度平衡。换句话说，渗透压是影响水分子在不同浓度溶液间移动的驱动力。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要概念：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>半透膜：允许某些分子（如水分子）通过，但阻止其他分子（如溶质颗粒）的膜。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浓度梯度：水分子从低浓度溶液（溶质少）流向高浓度溶液（溶质多）的现象，这个过程是为了减少浓度差异。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用：渗透压在生物学、医学等领域非常重要，例如细胞的水分平衡、输液治疗等。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果你需要更深入的解释或者实例，随时告诉我！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>色谱是一种分离和分析化合物的方法，广泛用于化学、分析化学和生物学研究中。其基本原理是基于不同物质在两相之间的分配差异，通过移动相和固定相的相互作用将混合物中的成分分离开来。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要组成部分：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定相：通常是填充在色谱柱中的固体或涂覆在固体上的液体。它影响溶质与它的相互作用。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动相：是流动的气体或液体，用于将目标物质推送通过色谱柱。不同物质在移动相中的溶解度和亲和力不同，进而影响它们的流速。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常见类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>气相色谱（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）：用于分离和分析气体或挥发性液体样品。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>液相色谱（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>HPLC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）：用于分离和分析液态样品，适用于极性或不挥发性的化合物。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>薄层色谱（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>TLC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）：在平面上分离样品，常用于快速分析和分离。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用领域：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药物分析：用来检测和量化药物成分。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食品检测：用于分析食品中的添加剂、残留物。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环境监测：检测水、空气和土壤样品中的污染物。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>色谱技术在科学研究和工业应用中具有重要意义。如果您想了解更详细的信息或特定类型的色谱技术，请告诉我！</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +538,25 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,6 +620,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,7 +910,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -494,34 +926,34 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -536,9 +968,11 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
@@ -548,6 +982,9 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -556,10 +993,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -567,19 +1005,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="C6" s="2"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="C7" s="2"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>

--- a/MARK/storage/uploads/文字回答.xlsx
+++ b/MARK/storage/uploads/文字回答.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16211\Desktop\MARK_mobile\MARK\storage\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FC0786-6500-4D64-9968-1BC70CF136B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2D6B57-E96A-4E05-93B8-BD3A2474A6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,14 +532,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="5"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
@@ -556,6 +548,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -618,14 +618,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,7 +910,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -924,8 +924,8 @@
     <col min="8" max="14" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1015,12 +1015,12 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>

--- a/MARK/storage/uploads/文字回答.xlsx
+++ b/MARK/storage/uploads/文字回答.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16211\Desktop\MARK_mobile\MARK\storage\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2D6B57-E96A-4E05-93B8-BD3A2474A6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075B8674-9FAB-4C5D-ABD4-512F2908A601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>什么是渗透压？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -910,7 +910,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -989,28 +989,14 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
